--- a/scheme/Sinfa2/issues_metadados_sinfa2.xlsx
+++ b/scheme/Sinfa2/issues_metadados_sinfa2.xlsx
@@ -37076,7 +37076,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -37091,7 +37091,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -37106,7 +37106,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -37121,7 +37121,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -37136,7 +37136,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -37212,7 +37212,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -37238,7 +37238,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -37264,7 +37264,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -37294,7 +37294,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -37324,7 +37324,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -37354,7 +37354,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -37384,7 +37384,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -37414,7 +37414,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -37444,7 +37444,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -37474,7 +37474,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -37504,7 +37504,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -37534,7 +37534,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -37564,7 +37564,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -37594,7 +37594,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -37624,7 +37624,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -37654,7 +37654,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -37684,7 +37684,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -37714,7 +37714,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -37744,7 +37744,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -37774,7 +37774,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -37804,7 +37804,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -37834,7 +37834,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -37864,7 +37864,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -37894,7 +37894,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -37924,7 +37924,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -37954,7 +37954,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -37984,7 +37984,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -38014,7 +38014,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -38044,7 +38044,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -38074,7 +38074,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -38104,7 +38104,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -38134,7 +38134,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -38164,7 +38164,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -38194,7 +38194,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -38224,7 +38224,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -38254,7 +38254,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -38284,7 +38284,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -38314,7 +38314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -38344,7 +38344,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -38374,7 +38374,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -38404,7 +38404,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -38434,7 +38434,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -38464,7 +38464,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -38494,7 +38494,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -38524,7 +38524,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -38554,7 +38554,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -38584,7 +38584,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -38614,7 +38614,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -38644,7 +38644,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -38674,7 +38674,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -38704,7 +38704,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -38734,7 +38734,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -38764,7 +38764,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -38794,7 +38794,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -38824,7 +38824,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -38854,7 +38854,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -38884,7 +38884,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -38914,7 +38914,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -38944,7 +38944,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -38974,7 +38974,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -39004,7 +39004,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -39034,7 +39034,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -39064,7 +39064,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -39094,7 +39094,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -39124,7 +39124,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -39154,7 +39154,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -39184,7 +39184,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -39214,7 +39214,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -39244,7 +39244,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -39274,7 +39274,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -39304,7 +39304,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -39334,7 +39334,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -39364,7 +39364,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -39394,7 +39394,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -39424,7 +39424,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -39454,7 +39454,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -39484,7 +39484,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -39514,7 +39514,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -39544,7 +39544,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -39574,7 +39574,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -39604,7 +39604,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -39634,7 +39634,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -39664,7 +39664,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -39694,7 +39694,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -39724,7 +39724,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -39754,7 +39754,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -39784,7 +39784,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -39814,7 +39814,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -39844,7 +39844,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -39874,7 +39874,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -39904,7 +39904,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -39934,7 +39934,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -39964,7 +39964,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -39994,7 +39994,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -40024,7 +40024,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -40054,7 +40054,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -40084,7 +40084,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -40114,7 +40114,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -40144,7 +40144,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -40174,7 +40174,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -40204,7 +40204,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -40234,7 +40234,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -40264,7 +40264,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -40294,7 +40294,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -40324,7 +40324,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -40354,7 +40354,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -40384,7 +40384,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -40414,7 +40414,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -40444,7 +40444,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -40474,7 +40474,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -40504,7 +40504,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -40534,7 +40534,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -40564,7 +40564,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -40594,7 +40594,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -40624,7 +40624,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -40654,7 +40654,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -40684,7 +40684,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -40714,7 +40714,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -40744,7 +40744,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -40774,7 +40774,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -40804,7 +40804,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -40834,7 +40834,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -40864,7 +40864,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -40894,7 +40894,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -40924,7 +40924,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -40954,7 +40954,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -40984,7 +40984,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -41014,7 +41014,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -41044,7 +41044,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -41074,7 +41074,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -41104,7 +41104,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -41134,7 +41134,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -41164,7 +41164,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -41194,7 +41194,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -41224,7 +41224,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -41254,7 +41254,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -41284,7 +41284,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -41314,7 +41314,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -41344,7 +41344,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -41374,7 +41374,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -41404,7 +41404,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -41434,7 +41434,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -41464,7 +41464,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -41494,7 +41494,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -41524,7 +41524,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -41554,7 +41554,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -41584,7 +41584,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -41614,7 +41614,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -41644,7 +41644,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -41674,7 +41674,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -41704,7 +41704,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -41734,7 +41734,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -41764,7 +41764,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -41794,7 +41794,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -41824,7 +41824,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -41854,7 +41854,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -41884,7 +41884,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -41914,7 +41914,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -41944,7 +41944,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -41974,7 +41974,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -42004,7 +42004,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -42034,7 +42034,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -42064,7 +42064,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -42094,7 +42094,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -42124,7 +42124,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -42154,7 +42154,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -42184,7 +42184,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -42214,7 +42214,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -42244,7 +42244,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -42274,7 +42274,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -42304,7 +42304,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -42334,7 +42334,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -42364,7 +42364,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -42394,7 +42394,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -42424,7 +42424,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -42454,7 +42454,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -42484,7 +42484,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -42514,7 +42514,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -42544,7 +42544,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -42574,7 +42574,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -42604,7 +42604,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -42634,7 +42634,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -42664,7 +42664,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -42694,7 +42694,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -42724,7 +42724,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -42754,7 +42754,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -42784,7 +42784,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -42814,7 +42814,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -42844,7 +42844,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -42874,7 +42874,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -42904,7 +42904,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -42934,7 +42934,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -42964,7 +42964,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -42994,7 +42994,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -43024,7 +43024,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -43054,7 +43054,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -43084,7 +43084,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -43114,7 +43114,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -43144,7 +43144,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -43174,7 +43174,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -43204,7 +43204,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -43234,7 +43234,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -43264,7 +43264,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -43294,7 +43294,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -43324,7 +43324,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -43354,7 +43354,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -43384,7 +43384,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -43414,7 +43414,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -43444,7 +43444,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -43474,7 +43474,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -43504,7 +43504,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -43534,7 +43534,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -43564,7 +43564,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -43594,7 +43594,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -43624,7 +43624,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -43654,7 +43654,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -43684,7 +43684,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -43714,7 +43714,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -43744,7 +43744,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -43774,7 +43774,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -43804,7 +43804,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -43834,7 +43834,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -43864,7 +43864,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -43894,7 +43894,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -43936,7 +43936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43964,45 +43964,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>589</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>363</v>
       </c>
     </row>
@@ -44017,7 +44002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44045,29 +44030,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>95.12%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -44079,29 +44064,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.32%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -44113,29 +44098,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>63.16%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -44147,15 +44132,83 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>90.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
